--- a/items.xlsx
+++ b/items.xlsx
@@ -15,32 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>CENTRAL NEGROS POWER RELIABILITY, INC.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+  <si>
+    <t>STA. ISABEL CPGC POWER CORP.</t>
   </si>
   <si>
     <t>MATERIAL INVENTORY REPORT TO DATE</t>
   </si>
   <si>
-    <t>Purok San Jose, Brgy. Calumangan, Bago City</t>
-  </si>
-  <si>
-    <t>Tel. No. 476 - 7382</t>
+    <t>CDPP Building, NPC Compound, Sta. Isabel,Calapan City, Oriental Mindoro</t>
+  </si>
+  <si>
+    <t>Tel: (+043) 288-2026</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2019-01-31</t>
+    <t>2019-09-26</t>
   </si>
   <si>
     <t>Main Category</t>
   </si>
   <si>
+    <t>Consumables</t>
+  </si>
+  <si>
     <t>Sub-Category</t>
   </si>
   <si>
+    <t>Fuel and Lubricants</t>
+  </si>
+  <si>
     <t>No.</t>
   </si>
   <si>
@@ -72,6 +78,135 @@
   </si>
   <si>
     <t>Bin</t>
+  </si>
+  <si>
+    <t>CON-FUE_1001</t>
+  </si>
+  <si>
+    <t>Argina S4 40 (Lube Oil)</t>
+  </si>
+  <si>
+    <t>drum/s</t>
+  </si>
+  <si>
+    <t>CON-FUE_1015</t>
+  </si>
+  <si>
+    <t>Belt Dressing, Specialist, 360ml</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>WH - Rm1</t>
+  </si>
+  <si>
+    <t>CENPRI</t>
+  </si>
+  <si>
+    <t>CON-FUE_1002</t>
+  </si>
+  <si>
+    <t>Cutting Oil, Water Soluble, High Performance Lubricant</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>CON-FUE_1003</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>CON-FUE_1004</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>CON-FUE_1005</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>CON-FUE_1006</t>
+  </si>
+  <si>
+    <t>Lubricating Oil, WD40 (M.T)</t>
+  </si>
+  <si>
+    <t>CON-FUE_1016</t>
+  </si>
+  <si>
+    <t>Oil, Engine, 20W-50, Euro Lube, 4T</t>
+  </si>
+  <si>
+    <t>CON-FUE_1007</t>
+  </si>
+  <si>
+    <t>Omala S2 G 150</t>
+  </si>
+  <si>
+    <t>pail/s</t>
+  </si>
+  <si>
+    <t>CON-FUE_1008</t>
+  </si>
+  <si>
+    <t>Omala S2 G 220</t>
+  </si>
+  <si>
+    <t>CON-FUE_1009</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>cyl/s</t>
+  </si>
+  <si>
+    <t>CON-FUE_1010</t>
+  </si>
+  <si>
+    <t>Penetrating Oil, Multi-Use</t>
+  </si>
+  <si>
+    <t>CON-FUE_1017</t>
+  </si>
+  <si>
+    <t>Petromar HF 4040</t>
+  </si>
+  <si>
+    <t>WH - Bldg.</t>
+  </si>
+  <si>
+    <t>CON-FUE_1011</t>
+  </si>
+  <si>
+    <t>Rimula R1-40 (Flushing Oil), 209L/drum</t>
+  </si>
+  <si>
+    <t>CON-FUE_1012</t>
+  </si>
+  <si>
+    <t>Rimula R4X 15W-40, 20L/pail</t>
+  </si>
+  <si>
+    <t>CON-FUE_1013</t>
+  </si>
+  <si>
+    <t>Shell Corena S4 P100</t>
+  </si>
+  <si>
+    <t>CON-FUE_1014</t>
+  </si>
+  <si>
+    <t>Tellus S2 M68, 20 L</t>
+  </si>
+  <si>
+    <t>Chem - Stg</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -209,12 +344,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -267,7 +411,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1152525" cy="333375"/>
+    <xdr:ext cx="333375" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Sample image" descr="Sample image"/>
@@ -583,7 +727,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C2" sqref="C2"/>
@@ -592,49 +736,49 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="4"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="6"/>
       <c r="B2"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="6"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="O2"/>
@@ -647,19 +791,19 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" s="5"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="6"/>
       <c r="B3"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -676,139 +820,1005 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3" s="5"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <protectedRanges>
+    <protectedRange name="p822bd33743c272e08cf61aa59c9fd6d8" sqref="A11:Y11" password="C724"/>
+    <protectedRange name="pf56de0b9b33481cc937f3cebb5bc2b2d" sqref="A12:Y12" password="C724"/>
     <protectedRange name="p3e2f6c7e0289de3e62bdd91242c35271" sqref="A13:Y13" password="C724"/>
+    <protectedRange name="p0305813cba1b35d5026b7d0a00be8d47" sqref="A14:Y14" password="C724"/>
     <protectedRange name="pb9bfca21f19a8c2dde89639fe2489994" sqref="A15:Y15" password="C724"/>
+    <protectedRange name="pcffbecc647fc6c442f6fd9fb59c0bca8" sqref="A16:Y16" password="C724"/>
+    <protectedRange name="p001d402f9017e08ae5bddd9f32e65888" sqref="A17:Y17" password="C724"/>
+    <protectedRange name="pe17f7d7183fcc7380498ab7b0dfd29a5" sqref="A18:Y18" password="C724"/>
+    <protectedRange name="pd772d881ef700f95f4ae9aefd7db8521" sqref="A19:Y19" password="C724"/>
+    <protectedRange name="p4ecd5bc3b7abde0b149ae5d4b74f619c" sqref="A20:Y20" password="C724"/>
+    <protectedRange name="p82f2b9aee66f02b3c84a62ada312831f" sqref="A21:Y21" password="C724"/>
+    <protectedRange name="p1e5a5e229aa38129e3efdeca027e31cf" sqref="A22:Y22" password="C724"/>
+    <protectedRange name="pe95ec869010f5cf93ed266ec100b537b" sqref="A23:Y23" password="C724"/>
+    <protectedRange name="p1b6ca560292cb2a6217b7076f29fa8d5" sqref="A24:Y24" password="C724"/>
+    <protectedRange name="pd8a841d7a365fec5111ca02713e09336" sqref="A25:Y25" password="C724"/>
+    <protectedRange name="p236b91deae9f6e1a7dfad00881c73082" sqref="A26:Y26" password="C724"/>
+    <protectedRange name="pe7b215e8abec3bd9ed9c24388da496fd" sqref="A27:Y27" password="C724"/>
+    <protectedRange name="p689197c81d80bb6c40babd8bf6863395" sqref="A30:Y30" password="C724"/>
+    <protectedRange name="pac13e9967d751656d83eb2c0a407f3ca" sqref="A32:Y32" password="C724"/>
   </protectedRanges>
   <mergeCells>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:K10"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -32,7 +32,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-03-02</t>
+    <t>2020-04-03</t>
   </si>
   <si>
     <t>Main Category</t>
@@ -3373,7 +3373,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="3">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3">

--- a/items.xlsx
+++ b/items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>CENTRAL NEGROS POWER RELIABILITY, INC.</t>
   </si>
@@ -86,34 +86,334 @@
     <t>Local</t>
   </si>
   <si>
+    <t>EIC-PAR_1028</t>
+  </si>
+  <si>
+    <t>Breaker, Circuit, 400V, 1C60N, 25A, 2 Phase</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1031</t>
+  </si>
+  <si>
+    <t>Breaker, Circuit, 400V, C25, 2 Phase</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1049</t>
+  </si>
+  <si>
+    <t>Connector, Straight, Rigid Conduit, LTFMC, 1" dia.</t>
+  </si>
+  <si>
+    <t>WH - Rm3</t>
+  </si>
+  <si>
+    <t>CENPRI</t>
+  </si>
+  <si>
+    <t>Rack - A3</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1051</t>
+  </si>
+  <si>
+    <t>Connector, Straight, Rigid Conduit, LTFMC, 1/2" dia.</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1052</t>
+  </si>
+  <si>
+    <t>Connector, Straight, Rigid Conduit, LTFMC, 3/4" dia.</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1065</t>
+  </si>
+  <si>
+    <t>Coupling, Rigid Steel Conduit, 1-1/2"</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1078</t>
+  </si>
+  <si>
+    <t>Insulation, Tube, Spaghetti, 1/8"</t>
+  </si>
+  <si>
+    <t>mtr/s</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1086</t>
+  </si>
+  <si>
+    <t>Outlet, Convenience, 2 Gang</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1090</t>
+  </si>
+  <si>
+    <t>Pipe, Rigid Steel Conduit, 1"</t>
+  </si>
+  <si>
+    <t>lgth/s</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1091</t>
+  </si>
+  <si>
+    <t>Pipe, Rigid Steel Conduit, 1/2"</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1101</t>
+  </si>
+  <si>
+    <t>Relay, 5A, 240VAC/28VDC, 8-Pin</t>
+  </si>
+  <si>
+    <t>Rack - A4</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1110</t>
+  </si>
+  <si>
+    <t>Conduit Body, Rigid, Type LL, 1/2" dia.</t>
+  </si>
+  <si>
+    <t>Rack - A2</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1111</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1125</t>
+  </si>
+  <si>
+    <t>Socket Adapter, Light Bulb - Plug Outlet, 125V, 660W</t>
+  </si>
+  <si>
+    <t>WH - Rm1</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket, Relay, Din Rail, Round, 10A, 250V, 8-Pin </t>
+  </si>
+  <si>
+    <t>EIC-PAR_1137</t>
+  </si>
+  <si>
+    <t>Socket, Rubberized</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1146</t>
+  </si>
+  <si>
+    <t>Switch, Pressure, Type 903.2381.907, IP65, Pmax:40bar, 250VAC/30VDC, 15(1.5)A</t>
+  </si>
+  <si>
+    <t>unit/s</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1148</t>
+  </si>
+  <si>
+    <t>Switch, Pressure, Type 900.2381.907, IP65, Pmax:40bar, 250VAC/30VDC, 15(1.5)A</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal Lug, Ring, Stud Size #4  </t>
+  </si>
+  <si>
+    <t>EIC-PAR_1192</t>
+  </si>
+  <si>
+    <t>Terminal Lug, Ring, Long Barrel, Stud Size 5/8", 1000MCM</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1219</t>
+  </si>
+  <si>
+    <t>Box, Junction, PVC, Hexagonal, 4" x 4", gauge 4 mm, White</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector, Copper Compression, Standard Barrel, 250 MCM, Yellow </t>
+  </si>
+  <si>
+    <t>EIC-PAR_1256</t>
+  </si>
+  <si>
+    <t>Connector, Grounding, Split Bolt, 1 AWG (Str) - 250 kcmil (Run &amp; Tap)</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1287</t>
+  </si>
+  <si>
+    <t>Grounding Rod, Copper Coated, 5/8" x 8 feet</t>
+  </si>
+  <si>
+    <t>Rack - O1</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1296</t>
+  </si>
+  <si>
+    <t>Insulator, Post, Porcelain, 15KV</t>
+  </si>
+  <si>
+    <t>Rack - E2</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1301</t>
+  </si>
+  <si>
+    <t>Ground Rod, Copper Bonded, 5/8" dia x 10 ft, Unthreaded Standard Series (256 Micron)</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1304</t>
+  </si>
+  <si>
+    <t>Bolt, SS, Full Thread, Complete, M8 x 2"</t>
+  </si>
+  <si>
+    <t>set/s</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1307</t>
+  </si>
+  <si>
+    <t>Box, Junction, PVC, Hexagonal, 4" x 4", gauge 4 mm, Orange</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1310</t>
+  </si>
+  <si>
+    <t>Conduit Body, Rigid, Type LB, 1/2" dia.</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1311</t>
+  </si>
+  <si>
+    <t>THHN/ THWN-2,Lead Free, 3.5mm? STR, 600 V, 30 Amperes, 90deg Wet or Dry, Red</t>
+  </si>
+  <si>
+    <t>Rack - O3</t>
+  </si>
+  <si>
     <t>EIC-PAR_1312</t>
   </si>
   <si>
     <t>Adapter, MxF, PVC, 1/2 inch, W/ Lock Nut</t>
   </si>
   <si>
-    <t>pc/s</t>
-  </si>
-  <si>
-    <t>WH - Rm1</t>
-  </si>
-  <si>
-    <t>CENPRI</t>
-  </si>
-  <si>
     <t>Rack - O2</t>
   </si>
   <si>
+    <t>EIC-PAR_1313</t>
+  </si>
+  <si>
+    <t>Control Relay, Three-Phase Voltage, 380-480V</t>
+  </si>
+  <si>
     <t>EIC-PAR_1314</t>
   </si>
   <si>
     <t>Block, Time Delay, 0.1 sec - 30 sec, 10 A, 690 V, LADT2</t>
   </si>
   <si>
-    <t>WH - Rm3</t>
-  </si>
-  <si>
-    <t>Rack - A4</t>
+    <t>EIC-PAR_1315</t>
+  </si>
+  <si>
+    <t>Box, Pull, PVC, 6" x 6"</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1321</t>
+  </si>
+  <si>
+    <t>SD Card, Sandisk, Ultra SDHC, 16GB, UHS1 48MBPS</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1324</t>
+  </si>
+  <si>
+    <t>Relay, Auxiliary with Socket, 10A, 250Vac, 10A, 30Vdc, 11 Pins, 3PDT, Coil: 24Vdc</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1390</t>
+  </si>
+  <si>
+    <t>Terminal Lug, Y-Type, Size (14-12)</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1394</t>
+  </si>
+  <si>
+    <t>Box, Junction With Cover, PVC, Hexagonal, 4.5" x 4.5", Orange</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1398</t>
+  </si>
+  <si>
+    <t>Cable Tray, Ladder Type, Galvanized, Gauge 16, 300mm x 2438mm long w/ cover.</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1399</t>
+  </si>
+  <si>
+    <t>Wire Duct, 3" x 3" x 8ft long</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1409</t>
+  </si>
+  <si>
+    <t>Terminal Eye, Non-Insulated, 22-10</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1410</t>
+  </si>
+  <si>
+    <t>Clip, Aligator</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1416</t>
+  </si>
+  <si>
+    <t>THHN Copper Wire, 22mm?, Red</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1417</t>
+  </si>
+  <si>
+    <t>Terminal Lug, Pin Type, AWG, 1.25</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1418</t>
+  </si>
+  <si>
+    <t>Terminal Lug, Pin Type, #18-20</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1419</t>
+  </si>
+  <si>
+    <t>THHN Wire, 3.5mm?, 12 Stranded</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1422</t>
+  </si>
+  <si>
+    <t>Bulb, Pilot, 5W, 125VDC</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1423</t>
+  </si>
+  <si>
+    <t>Bulb, Pilot, 5W, 125VAC</t>
   </si>
   <si>
     <t>EIC-PAR_1425</t>
@@ -122,40 +422,28 @@
     <t>Blower, Fan, (Cooling Fan), 12 x 12cm</t>
   </si>
   <si>
-    <t>EIC-PAR_1304</t>
-  </si>
-  <si>
-    <t>Bolt, SS, Full Thread, Complete, M8 x 2"</t>
-  </si>
-  <si>
-    <t>set/s</t>
-  </si>
-  <si>
-    <t>Rack - E2</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1394</t>
-  </si>
-  <si>
-    <t>Box, Junction With Cover, PVC, Hexagonal, 4.5" x 4.5", Orange</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1307</t>
-  </si>
-  <si>
-    <t>Box, Junction, PVC, Hexagonal, 4" x 4", gauge 4 mm, Orange</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1219</t>
-  </si>
-  <si>
-    <t>Box, Junction, PVC, Hexagonal, 4" x 4", gauge 4 mm, White</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1315</t>
-  </si>
-  <si>
-    <t>Box, Pull, PVC, 6" x 6"</t>
+    <t>EIC-PAR_1429</t>
+  </si>
+  <si>
+    <t>Emergency Stop Bottom</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solenoid Valve, Shutdown, 24VDC </t>
+  </si>
+  <si>
+    <t>EIC-PAR_1439</t>
+  </si>
+  <si>
+    <t>Switch, Heavy Duty w/ Plate, Wall Mounted, Plastic, 1 Gang</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1440</t>
+  </si>
+  <si>
+    <t>Fan, Motor Blade</t>
   </si>
   <si>
     <t>EIC-PAR_1441</t>
@@ -164,67 +452,16 @@
     <t>Breaker, Circuit, 230/400V, C30, Single Phase</t>
   </si>
   <si>
-    <t>EIC-PAR_1028</t>
-  </si>
-  <si>
-    <t>Breaker, Circuit, 400V, 1C60N, 25A, 2 Phase</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1031</t>
-  </si>
-  <si>
-    <t>Breaker, Circuit, 400V, C25, 2 Phase</t>
-  </si>
-  <si>
     <t>EIC-PAR_1456</t>
   </si>
   <si>
     <t>Bridge Rectifier, KBPC3501</t>
   </si>
   <si>
-    <t>Rack - A3</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1423</t>
-  </si>
-  <si>
-    <t>Bulb, Pilot, 5W, 125VAC</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1422</t>
-  </si>
-  <si>
-    <t>Bulb, Pilot, 5W, 125VDC</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1398</t>
-  </si>
-  <si>
-    <t>Cable Tray, Ladder Type, Galvanized, Gauge 16, 300mm x 2438mm long w/ cover.</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1410</t>
-  </si>
-  <si>
-    <t>Clip, Aligator</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1310</t>
-  </si>
-  <si>
-    <t>Conduit Body, Rigid, Type LB, 1/2" dia.</t>
-  </si>
-  <si>
-    <t>Rack - A2</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1111</t>
-  </si>
-  <si>
-    <t>Conduit Body, Rigid, Type LL, 1/2" dia.</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1110</t>
+    <t>EIC-PAR_1458</t>
+  </si>
+  <si>
+    <t>Conduit, LTFMC 1/2", Flexible Pipe</t>
   </si>
   <si>
     <t>EIC-PAR_1459</t>
@@ -233,241 +470,103 @@
     <t>Conduit, LTFMC 1", Flexible Pipe</t>
   </si>
   <si>
-    <t>mtr/s</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1458</t>
-  </si>
-  <si>
-    <t>Conduit, LTFMC 1/2", Flexible Pipe</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector, Copper Compression, Standard Barrel, 250 MCM, Yellow </t>
-  </si>
-  <si>
-    <t>EIC-PAR_1256</t>
-  </si>
-  <si>
-    <t>Connector, Grounding, Split Bolt, 1 AWG (Str) - 250 kcmil (Run &amp; Tap)</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1049</t>
-  </si>
-  <si>
-    <t>Connector, Straight, Rigid Conduit, LTFMC, 1" dia.</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1051</t>
-  </si>
-  <si>
-    <t>Connector, Straight, Rigid Conduit, LTFMC, 1/2" dia.</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1052</t>
-  </si>
-  <si>
-    <t>Connector, Straight, Rigid Conduit, LTFMC, 3/4" dia.</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1313</t>
-  </si>
-  <si>
-    <t>Control Relay, Three-Phase Voltage, 380-480V</t>
-  </si>
-  <si>
-    <t>unit/s</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1065</t>
-  </si>
-  <si>
-    <t>Coupling, Rigid Steel Conduit, 1-1/2"</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1429</t>
-  </si>
-  <si>
-    <t>Emergency Stop Bottom</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1440</t>
-  </si>
-  <si>
-    <t>Fan, Motor Blade</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1301</t>
-  </si>
-  <si>
-    <t>Ground Rod, Copper Bonded, 5/8" dia x 10 ft, Unthreaded Standard Series (256 Micron)</t>
-  </si>
-  <si>
-    <t>lgth/s</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1287</t>
-  </si>
-  <si>
-    <t>Grounding Rod, Copper Coated, 5/8" x 8 feet</t>
-  </si>
-  <si>
-    <t>Rack - O1</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1078</t>
-  </si>
-  <si>
-    <t>Insulation, Tube, Spaghetti, 1/8"</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1296</t>
-  </si>
-  <si>
-    <t>Insulator, Post, Porcelain, 15KV</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1086</t>
-  </si>
-  <si>
-    <t>Outlet, Convenience, 2 Gang</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1090</t>
-  </si>
-  <si>
-    <t>Pipe, Rigid Steel Conduit, 1"</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1091</t>
-  </si>
-  <si>
-    <t>Pipe, Rigid Steel Conduit, 1/2"</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1101</t>
-  </si>
-  <si>
-    <t>Relay, 5A, 240VAC/28VDC, 8-Pin</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1324</t>
-  </si>
-  <si>
-    <t>Relay, Auxiliary with Socket, 10A, 250Vac, 10A, 30Vdc, 11 Pins, 3PDT, Coil: 24Vdc</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1321</t>
-  </si>
-  <si>
-    <t>SD Card, Sandisk, Ultra SDHC, 16GB, UHS1 48MBPS</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1125</t>
-  </si>
-  <si>
-    <t>Socket Adapter, Light Bulb - Plug Outlet, 125V, 660W</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket, Relay, Din Rail, Round, 10A, 250V, 8-Pin </t>
-  </si>
-  <si>
-    <t>EIC-PAR_1137</t>
-  </si>
-  <si>
-    <t>Socket, Rubberized</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solenoid Valve, Shutdown, 24VDC </t>
-  </si>
-  <si>
-    <t>EIC-PAR_1439</t>
-  </si>
-  <si>
-    <t>Switch, Heavy Duty w/ Plate, Wall Mounted, Plastic, 1 Gang</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1148</t>
-  </si>
-  <si>
-    <t>Switch, Pressure, Type 900.2381.907, IP65, Pmax:40bar, 250VAC/30VDC, 15(1.5)A</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1146</t>
-  </si>
-  <si>
-    <t>Switch, Pressure, Type 903.2381.907, IP65, Pmax:40bar, 250VAC/30VDC, 15(1.5)A</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1409</t>
-  </si>
-  <si>
-    <t>Terminal Eye, Non-Insulated, 22-10</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1418</t>
-  </si>
-  <si>
-    <t>Terminal Lug, Pin Type, #18-20</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1417</t>
-  </si>
-  <si>
-    <t>Terminal Lug, Pin Type, AWG, 1.25</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1192</t>
-  </si>
-  <si>
-    <t>Terminal Lug, Ring, Long Barrel, Stud Size 5/8", 1000MCM</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal Lug, Ring, Stud Size #4  </t>
-  </si>
-  <si>
-    <t>EIC-PAR_1390</t>
-  </si>
-  <si>
-    <t>Terminal Lug, Y-Type, Size (14-12)</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1416</t>
-  </si>
-  <si>
-    <t>THHN Copper Wire, 22mm?, Red</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1419</t>
-  </si>
-  <si>
-    <t>THHN Wire, 3.5mm?, 12 Stranded</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1311</t>
-  </si>
-  <si>
-    <t>THHN/ THWN-2,Lead Free, 3.5mm? STR, 600 V, 30 Amperes, 90deg Wet or Dry, Red</t>
-  </si>
-  <si>
-    <t>Rack - O3</t>
-  </si>
-  <si>
-    <t>EIC-PAR_1399</t>
-  </si>
-  <si>
-    <t>Wire Duct, 3" x 3" x 8ft long</t>
+    <t>EIC-PAR_1464</t>
+  </si>
+  <si>
+    <t>Distribution Circuit Breaker 50A, 8 Branches, 3P, Panel</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1465</t>
+  </si>
+  <si>
+    <t>Connector, Conduit, Adapter, w/ Locknut, UPVC, 1"</t>
+  </si>
+  <si>
+    <t>Side Wall</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1467</t>
+  </si>
+  <si>
+    <t>Outlet, Convenience, 3 Gang, w/ Cover &amp; Plate</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1468</t>
+  </si>
+  <si>
+    <t>Control, Box</t>
+  </si>
+  <si>
+    <t>Rack - B1</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1485</t>
+  </si>
+  <si>
+    <t>Terminal Lug, Ring, Stud Size, (2-5)</t>
+  </si>
+  <si>
+    <t>Rack - C1</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1486</t>
+  </si>
+  <si>
+    <t>Terminal Lug, Ring, Stud Size (1.25-4)</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1487</t>
+  </si>
+  <si>
+    <t>THHN Wire, 14mm</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1488</t>
+  </si>
+  <si>
+    <t>Outlet, Universal, 2 Gang</t>
+  </si>
+  <si>
+    <t>Rack - D2</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1489</t>
+  </si>
+  <si>
+    <t>Meter, Electronic Energy, Single Phase, 2 Wire, 220 - 240V, 10 (60)A, Sub Meter</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1491</t>
+  </si>
+  <si>
+    <t>Breaker, Circuit, 50A, 3P, 220-240V, Bolt-on Type, GE, w/o Enclosure</t>
+  </si>
+  <si>
+    <t>Rack - D1</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1492</t>
+  </si>
+  <si>
+    <t>Breaker, Circuit, 15A, 2P, 220-240V, Bolt-on Type, GE, w/o Enclosure</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1493</t>
+  </si>
+  <si>
+    <t>Breaker, Circuit, 30A, 2P, 220-240V, Bolt-on Type, GE, w/o Enclosure</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1495</t>
+  </si>
+  <si>
+    <t>Terminal Clamp, Battery</t>
+  </si>
+  <si>
+    <t>EIC-PAR_1502</t>
+  </si>
+  <si>
+    <t>Distribution Panel, 300A, 3P, Bolt on Type, 440V/230V, Wall Mounted, 16 Branches of CB</t>
   </si>
   <si>
     <t xml:space="preserve">Prepared By: </t>
@@ -985,7 +1084,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C2" sqref="C2"/>
@@ -1214,7 +1313,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="3">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3">
@@ -1229,17 +1328,11 @@
         <v>25</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
@@ -1253,11 +1346,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1268,7 +1361,7 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3">
@@ -1279,17 +1372,11 @@
         <v>25</v>
       </c>
       <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
@@ -1303,22 +1390,22 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="3">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3">
@@ -1329,11 +1416,17 @@
         <v>25</v>
       </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1347,18 +1440,18 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="3">
-        <v>15</v>
+        <v>29.1</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3">
@@ -1370,20 +1463,14 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
@@ -1397,18 +1484,18 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="3">
-        <v>60</v>
+        <v>42.25</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3">
@@ -1423,13 +1510,9 @@
         <v>25</v>
       </c>
       <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -1445,22 +1528,22 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="3">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -1471,17 +1554,11 @@
         <v>25</v>
       </c>
       <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1495,22 +1572,22 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
@@ -1518,20 +1595,14 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
@@ -1545,18 +1616,18 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="3">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3">
@@ -1571,13 +1642,9 @@
         <v>25</v>
       </c>
       <c r="S18" s="1"/>
-      <c r="T18" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -1593,18 +1660,18 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="3">
-        <v>295</v>
+        <v>214.5</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3">
@@ -1616,7 +1683,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1637,18 +1704,18 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3">
@@ -1660,7 +1727,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -1681,11 +1748,11 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1696,7 +1763,7 @@
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
@@ -1707,11 +1774,17 @@
         <v>25</v>
       </c>
       <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
+      <c r="X21" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
@@ -1725,22 +1798,22 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
@@ -1752,15 +1825,15 @@
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -1775,22 +1848,22 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3">
@@ -1801,11 +1874,17 @@
         <v>25</v>
       </c>
       <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
@@ -1819,22 +1898,22 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3">
@@ -1845,11 +1924,17 @@
         <v>25</v>
       </c>
       <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="T24" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
+      <c r="X24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
@@ -1863,22 +1948,22 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="3">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
@@ -1889,11 +1974,17 @@
         <v>25</v>
       </c>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="T25" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="X25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
@@ -1907,18 +1998,18 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="3">
-        <v>28.75</v>
+        <v>20.8</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3">
@@ -1951,11 +2042,11 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1966,7 +2057,7 @@
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3">
@@ -1974,19 +2065,19 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2001,11 +2092,11 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2016,7 +2107,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
@@ -2024,14 +2115,20 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="T28" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
@@ -2045,22 +2142,22 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>30.333333</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3">
@@ -2100,11 +2197,11 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="3">
-        <v>134</v>
+        <v>1116.26</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3">
@@ -2112,15 +2209,15 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1" t="s">
@@ -2139,22 +2236,22 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3">
@@ -2162,19 +2259,19 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -2189,11 +2286,11 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2204,7 +2301,7 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3">
@@ -2216,15 +2313,15 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -2239,11 +2336,11 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2254,7 +2351,7 @@
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3">
@@ -2266,15 +2363,15 @@
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W33" s="1"/>
       <c r="X33" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -2289,22 +2386,22 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="3">
-        <v>0</v>
+        <v>580.5</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3">
@@ -2312,19 +2409,19 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -2350,7 +2447,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="3">
-        <v>29.1</v>
+        <v>3219</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3">
@@ -2365,11 +2462,17 @@
         <v>25</v>
       </c>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="T35" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
+      <c r="X35" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
@@ -2383,18 +2486,18 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="3">
-        <v>42.25</v>
+        <v>1286.5</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3">
@@ -2406,12 +2509,16 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="V36" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -2427,18 +2534,18 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="3">
-        <v>2026</v>
+        <v>15</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3">
@@ -2450,18 +2557,20 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U37" s="1"/>
       <c r="V37" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
+      <c r="X37" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
@@ -2475,18 +2584,18 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="3">
-        <v>19.5</v>
+        <v>15.333333</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3">
@@ -2501,11 +2610,17 @@
         <v>25</v>
       </c>
       <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="T38" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="V38" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
+      <c r="X38" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
@@ -2519,22 +2634,22 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3">
@@ -2545,11 +2660,17 @@
         <v>25</v>
       </c>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="V39" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
+      <c r="X39" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
@@ -2563,18 +2684,18 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="3">
-        <v>225</v>
+        <v>20.63</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3">
@@ -2586,14 +2707,20 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="V40" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
+      <c r="X40" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
@@ -2607,18 +2734,18 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="3">
-        <v>1286.5</v>
+        <v>8.25</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3">
@@ -2630,18 +2757,20 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
+      <c r="X41" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
@@ -2655,22 +2784,22 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="3">
-        <v>580.5</v>
+        <v>2026</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3">
@@ -2678,20 +2807,18 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W42" s="1"/>
-      <c r="X42" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
@@ -2705,22 +2832,22 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="3">
-        <v>9.416667</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3">
@@ -2728,14 +2855,20 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="T43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="V43" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
+      <c r="X43" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
@@ -2749,18 +2882,18 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="3">
-        <v>3219</v>
+        <v>80</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3">
@@ -2776,16 +2909,14 @@
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="X44" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
@@ -2799,18 +2930,18 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="3">
-        <v>31</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3">
@@ -2825,9 +2956,13 @@
         <v>25</v>
       </c>
       <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="V45" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -2843,22 +2978,22 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="3">
-        <v>214.5</v>
+        <v>580.333333</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3">
@@ -2866,12 +3001,16 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="V46" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -2887,18 +3026,18 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="3">
-        <v>66.5</v>
+        <v>7.5</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3">
@@ -2910,12 +3049,14 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -2931,22 +3072,22 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3">
@@ -2957,9 +3098,13 @@
         <v>25</v>
       </c>
       <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="V48" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -2975,18 +3120,18 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="3">
-        <v>580.333333</v>
+        <v>8400</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3">
@@ -3001,13 +3146,9 @@
         <v>25</v>
       </c>
       <c r="S49" s="1"/>
-      <c r="T49" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -3023,18 +3164,18 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3">
@@ -3046,16 +3187,12 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S50" s="1"/>
-      <c r="T50" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -3071,22 +3208,22 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3">
@@ -3098,16 +3235,14 @@
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W51" s="1"/>
-      <c r="X51" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
@@ -3121,22 +3256,22 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>31.25</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3">
@@ -3165,18 +3300,18 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="3">
-        <v>20.8</v>
+        <v>123.5</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3">
@@ -3188,7 +3323,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -3209,18 +3344,18 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="3">
-        <v>750</v>
+        <v>2.97</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3">
@@ -3253,18 +3388,18 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="3">
-        <v>98</v>
+        <v>2.97</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3">
@@ -3276,16 +3411,12 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="S55" s="1"/>
-      <c r="T55" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
@@ -3301,22 +3432,22 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="3">
-        <v>0</v>
+        <v>18.995</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3">
@@ -3324,20 +3455,18 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U56" s="1"/>
       <c r="V56" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W56" s="1"/>
-      <c r="X56" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
@@ -3351,22 +3480,22 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3">
@@ -3374,20 +3503,14 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="S57" s="1"/>
-      <c r="T57" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
@@ -3401,18 +3524,18 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="3">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3">
@@ -3427,13 +3550,9 @@
         <v>25</v>
       </c>
       <c r="S58" s="1"/>
-      <c r="T58" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
@@ -3449,18 +3568,18 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="3">
-        <v>2.97</v>
+        <v>406</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3">
@@ -3493,18 +3612,18 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="3">
-        <v>2.97</v>
+        <v>120</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3">
@@ -3537,22 +3656,22 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="3">
-        <v>1116.26</v>
+        <v>750</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3">
@@ -3581,22 +3700,22 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="3">
-        <v>30.333333</v>
+        <v>98</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3">
@@ -3604,12 +3723,16 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
+      <c r="V62" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
@@ -3625,18 +3748,18 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="3">
-        <v>7.5</v>
+        <v>225</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3">
@@ -3653,9 +3776,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
@@ -3671,18 +3792,18 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="3">
-        <v>123.5</v>
+        <v>295</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3">
@@ -3694,7 +3815,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
@@ -3715,18 +3836,18 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="3">
-        <v>18.995</v>
+        <v>120</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3">
@@ -3738,18 +3859,20 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U65" s="1"/>
       <c r="V65" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
+      <c r="X65" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
@@ -3763,18 +3886,18 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="3">
-        <v>20.63</v>
+        <v>62</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3">
@@ -3786,19 +3909,19 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U66" s="1"/>
       <c r="V66" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W66" s="1"/>
       <c r="X66" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
@@ -3824,7 +3947,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="3">
-        <v>700</v>
+        <v>134</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3">
@@ -3836,37 +3959,729 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="T67" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="V67" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
+      <c r="X67" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="1">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="3">
+        <v>6790</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="1">
+        <v>59</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
+        <v>18</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+    </row>
     <row r="70" spans="1:26">
-      <c r="A70" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" t="s">
-        <v>152</v>
-      </c>
-      <c r="G70" t="s">
-        <v>153</v>
-      </c>
+      <c r="A70" s="1">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="3">
+        <v>285</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="1">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="1">
+        <v>62</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="3">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" t="s">
-        <v>156</v>
+      <c r="A73" s="1">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="3">
+        <v>2</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="1">
+        <v>64</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="1">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="3">
+        <v>138.75</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="1">
+        <v>66</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="1">
+        <v>67</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="3">
+        <v>1865</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="1">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="3">
+        <v>670</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="1">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="3">
+        <v>670</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="1">
+        <v>70</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="3">
+        <v>45</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="1">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="3">
+        <v>34512</v>
+      </c>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+      <c r="G87" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3929,8 +4744,22 @@
     <protectedRange name="pe9a3c5eb448176974b1c16de23722a4e" sqref="A65:Z65" password="C724"/>
     <protectedRange name="pcebb34c2aaef07657ad91d0b57a10761" sqref="A66:Z66" password="C724"/>
     <protectedRange name="p6500308f5a6a015ba6cc2e0f044d5303" sqref="A67:Z67" password="C724"/>
-    <protectedRange name="p183950bc25d2e9901d4ff457235388f4" sqref="A70:Y70" password="C724"/>
-    <protectedRange name="p9788a994306e407e9c333f5b1055e958" sqref="A72:Y72" password="C724"/>
+    <protectedRange name="pbbdfd5f0f870295f4fc747668161f88c" sqref="A68:Z68" password="C724"/>
+    <protectedRange name="p158f15e1626df324a44006456ab0c2ca" sqref="A69:Z69" password="C724"/>
+    <protectedRange name="p00946f70286371345c5253bf41498254" sqref="A70:Z70" password="C724"/>
+    <protectedRange name="pd454cbbfdcc413808dabda8c229d96a6" sqref="A71:Z71" password="C724"/>
+    <protectedRange name="pc7b1bc57970b2ac2d341e330e1d3ac86" sqref="A72:Z72" password="C724"/>
+    <protectedRange name="p0c105bd312547004e4a921b166a9c69b" sqref="A73:Z73" password="C724"/>
+    <protectedRange name="p844bd0250d5492456f7abe92ecb097a9" sqref="A74:Z74" password="C724"/>
+    <protectedRange name="p4fbafb9bb559959ada7f81c8deaf25e0" sqref="A75:Z75" password="C724"/>
+    <protectedRange name="p2601c3e169d221c8c86402f48c842459" sqref="A76:Z76" password="C724"/>
+    <protectedRange name="p7400b20ffa4a2cf2b7606f5eadb29243" sqref="A77:Z77" password="C724"/>
+    <protectedRange name="p616bdb274cba2de3b52bf4b90ef7dc83" sqref="A78:Z78" password="C724"/>
+    <protectedRange name="pa67ed75c70d0f8ab9dc450fb811a8cae" sqref="A79:Z79" password="C724"/>
+    <protectedRange name="pd3be7461a364f76b11318363a8736481" sqref="A80:Z80" password="C724"/>
+    <protectedRange name="p7196338f657e27c459205102b17745b3" sqref="A81:Z81" password="C724"/>
+    <protectedRange name="p34386ad35c0fb56cae81aca91f3e7277" sqref="A84:Y84" password="C724"/>
+    <protectedRange name="pd30c79fecd7dfca46b43ad486a969921" sqref="A86:Y86" password="C724"/>
   </protectedRanges>
   <mergeCells>
     <mergeCell ref="B11:D11"/>
@@ -4503,6 +5332,146 @@
     <mergeCell ref="T67:U67"/>
     <mergeCell ref="V67:W67"/>
     <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:K10"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -32,7 +32,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-07-09</t>
+    <t>2020-07-13</t>
   </si>
   <si>
     <t>Main Category</t>
@@ -2783,6 +2783,12 @@
     <t>CON-CON_1328</t>
   </si>
   <si>
+    <t>Bushing, Coupling, BI, Inside Thread, 1" Dia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush, Coarse Wire Wheel, 1/4" Hex Shank, 1-1/2" </t>
+  </si>
+  <si>
     <t>Brush, Wheel, Crimped, 1/4" Hex Shank, 1"</t>
   </si>
   <si>
@@ -2790,12 +2796,6 @@
   </si>
   <si>
     <t>Brush, Wheel, Crimped, 1/4" Hex Shank, 3"</t>
-  </si>
-  <si>
-    <t>Bushing, Coupling, BI, Inside Thread, 1" Dia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brush, Coarse Wire Wheel, 1/4" Hex Shank, 1-1/2" </t>
   </si>
   <si>
     <t>CON-CON_1329</t>
@@ -26491,7 +26491,9 @@
       <c r="A439" s="1">
         <v>429</v>
       </c>
-      <c r="B439" s="1"/>
+      <c r="B439" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1" t="s">
@@ -26506,30 +26508,26 @@
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
       <c r="L439" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M439" s="3"/>
       <c r="N439" s="3">
         <v>0</v>
       </c>
       <c r="O439" s="3"/>
-      <c r="P439" s="3"/>
+      <c r="P439" s="3">
+        <v>60</v>
+      </c>
       <c r="Q439" s="2"/>
       <c r="R439" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S439" s="1"/>
-      <c r="T439" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="T439" s="1"/>
       <c r="U439" s="1"/>
-      <c r="V439" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="V439" s="1"/>
       <c r="W439" s="1"/>
-      <c r="X439" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
@@ -26556,7 +26554,7 @@
       </c>
       <c r="M440" s="3"/>
       <c r="N440" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O440" s="3"/>
       <c r="P440" s="3"/>
@@ -26629,9 +26627,7 @@
       <c r="A442" s="1">
         <v>432</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1" t="s">
@@ -26646,26 +26642,30 @@
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
       <c r="L442" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M442" s="3"/>
       <c r="N442" s="3">
         <v>0</v>
       </c>
       <c r="O442" s="3"/>
-      <c r="P442" s="3">
-        <v>60</v>
-      </c>
+      <c r="P442" s="3"/>
       <c r="Q442" s="2"/>
       <c r="R442" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S442" s="1"/>
-      <c r="T442" s="1"/>
+      <c r="T442" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U442" s="1"/>
-      <c r="V442" s="1"/>
+      <c r="V442" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="W442" s="1"/>
-      <c r="X442" s="1"/>
+      <c r="X442" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
@@ -26692,7 +26692,7 @@
       </c>
       <c r="M443" s="3"/>
       <c r="N443" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O443" s="3"/>
       <c r="P443" s="3"/>
